--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H2">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I2">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J2">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N2">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O2">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P2">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q2">
-        <v>276.4433404864088</v>
+        <v>337.8452264424863</v>
       </c>
       <c r="R2">
-        <v>2487.990064377679</v>
+        <v>3040.607037982376</v>
       </c>
       <c r="S2">
-        <v>0.6724881518000611</v>
+        <v>0.6438125174012397</v>
       </c>
       <c r="T2">
-        <v>0.6724881518000611</v>
+        <v>0.6438125174012396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H3">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I3">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J3">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.387475</v>
       </c>
       <c r="O3">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P3">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q3">
-        <v>58.03178391148055</v>
+        <v>94.34209725099446</v>
       </c>
       <c r="R3">
-        <v>522.286055203325</v>
+        <v>849.0788752589501</v>
       </c>
       <c r="S3">
-        <v>0.1411706537752924</v>
+        <v>0.1797823925696795</v>
       </c>
       <c r="T3">
-        <v>0.1411706537752923</v>
+        <v>0.1797823925696794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H4">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I4">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J4">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N4">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O4">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P4">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q4">
-        <v>36.327615437867</v>
+        <v>58.16823024857223</v>
       </c>
       <c r="R4">
-        <v>326.948538940803</v>
+        <v>523.51407223715</v>
       </c>
       <c r="S4">
-        <v>0.0883721449832344</v>
+        <v>0.1108479025838286</v>
       </c>
       <c r="T4">
-        <v>0.08837214498323438</v>
+        <v>0.1108479025838286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,13 +726,13 @@
         <v>0.287584</v>
       </c>
       <c r="H5">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I5">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J5">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N5">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O5">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P5">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q5">
-        <v>4.743442801269333</v>
+        <v>3.565871733717333</v>
       </c>
       <c r="R5">
-        <v>42.69098521142401</v>
+        <v>32.092845603456</v>
       </c>
       <c r="S5">
-        <v>0.0115391062667026</v>
+        <v>0.006795279843935582</v>
       </c>
       <c r="T5">
-        <v>0.01153910626670259</v>
+        <v>0.006795279843935582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.287584</v>
       </c>
       <c r="H6">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I6">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J6">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>10.387475</v>
       </c>
       <c r="O6">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P6">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q6">
         <v>0.9957572034666667</v>
       </c>
       <c r="R6">
-        <v>8.961814831200002</v>
+        <v>8.9618148312</v>
       </c>
       <c r="S6">
-        <v>0.002422322491916996</v>
+        <v>0.001897558117469595</v>
       </c>
       <c r="T6">
-        <v>0.002422322491916995</v>
+        <v>0.001897558117469594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.287584</v>
       </c>
       <c r="H7">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I7">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J7">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N7">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O7">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P7">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q7">
-        <v>0.6233391827520002</v>
+        <v>0.6139510989333333</v>
       </c>
       <c r="R7">
-        <v>5.610052644768001</v>
+        <v>5.525559890399999</v>
       </c>
       <c r="S7">
-        <v>0.001516362138497825</v>
+        <v>0.001169971843994121</v>
       </c>
       <c r="T7">
-        <v>0.001516362138497825</v>
+        <v>0.00116997184399412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H8">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I8">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J8">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N8">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O8">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P8">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q8">
-        <v>1.643088490272222</v>
+        <v>2.898692582582222</v>
       </c>
       <c r="R8">
-        <v>14.78779641245</v>
+        <v>26.08823324324</v>
       </c>
       <c r="S8">
-        <v>0.003997048871291021</v>
+        <v>0.005523874314921718</v>
       </c>
       <c r="T8">
-        <v>0.00399704887129102</v>
+        <v>0.005523874314921718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H9">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I9">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J9">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>10.387475</v>
       </c>
       <c r="O9">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P9">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q9">
-        <v>0.3449218781944445</v>
+        <v>0.8094497601944445</v>
       </c>
       <c r="R9">
-        <v>3.10429690375</v>
+        <v>7.28504784175</v>
       </c>
       <c r="S9">
-        <v>0.0008390720354277871</v>
+        <v>0.001542522572564249</v>
       </c>
       <c r="T9">
-        <v>0.0008390720354277867</v>
+        <v>0.001542522572564249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H10">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I10">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J10">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N10">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O10">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P10">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q10">
-        <v>0.21591942385</v>
+        <v>0.4990800649722222</v>
       </c>
       <c r="R10">
-        <v>1.94327481465</v>
+        <v>4.491720584749999</v>
       </c>
       <c r="S10">
-        <v>0.0005252550270414615</v>
+        <v>0.0009510686191957789</v>
       </c>
       <c r="T10">
-        <v>0.0005252550270414613</v>
+        <v>0.0009510686191957786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H11">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I11">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J11">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N11">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O11">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P11">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q11">
-        <v>23.63781684761144</v>
+        <v>17.23745633151422</v>
       </c>
       <c r="R11">
-        <v>212.740351628503</v>
+        <v>155.137106983628</v>
       </c>
       <c r="S11">
-        <v>0.057502386335185</v>
+        <v>0.03284844445264153</v>
       </c>
       <c r="T11">
-        <v>0.05750238633518499</v>
+        <v>0.03284844445264153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H12">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I12">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J12">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>10.387475</v>
       </c>
       <c r="O12">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P12">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q12">
-        <v>4.962118736613888</v>
+        <v>4.813499360969444</v>
       </c>
       <c r="R12">
-        <v>44.659068629525</v>
+        <v>43.321494248725</v>
       </c>
       <c r="S12">
-        <v>0.01207106690407682</v>
+        <v>0.009172813165742802</v>
       </c>
       <c r="T12">
-        <v>0.01207106690407682</v>
+        <v>0.0091728131657428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H13">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I13">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J13">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N13">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O13">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P13">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q13">
-        <v>3.106262276819</v>
+        <v>2.967845185647222</v>
       </c>
       <c r="R13">
-        <v>27.956360491371</v>
+        <v>26.71060667082499</v>
       </c>
       <c r="S13">
-        <v>0.007556429371272774</v>
+        <v>0.00565565451478701</v>
       </c>
       <c r="T13">
-        <v>0.007556429371272773</v>
+        <v>0.005655654514787009</v>
       </c>
     </row>
   </sheetData>
